--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3810617.462112471</v>
+        <v>3808729.88059607</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>559469.0872580751</v>
+        <v>174967.4257492559</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>295.9408816142882</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>353.5759586385877</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481177</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229206</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>99.34508049624243</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853703</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491434</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>9.220846587375998</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>104.8161677931367</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>106.5703420827759</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>22.35153719005481</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>94.63926978364023</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>45.68735282253539</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>163.8950372953901</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896922</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>39.74667436498609</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750031</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>183.1796758467007</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>29.18937547121085</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,19 +1850,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.87916681139852</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>94.1648127494131</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.1796758466994</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>60.65811021293084</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>167.3332122923326</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>166.4704758913029</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404416</v>
+        <v>160.1068879870776</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.086244858487</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801226</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897896</v>
+        <v>93.71057173897921</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>55.21598883571507</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523561</v>
+        <v>54.76109577523588</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>106.7207839194268</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3080,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3317,7 +3317,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857165</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3724,7 +3724,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
         <v>150.4527632224541</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898724</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857176</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692858</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329065</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789553</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346314</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415221</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.483574129469</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.483574129469</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1662.483574129469</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4325,55 +4325,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473039</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.483574129469</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.483574129469</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.483574129469</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,73 +4383,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615926</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600558</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942398</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124025</v>
+        <v>570.6683391887233</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124025</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124025</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124025</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>549.649320534153</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>180.6868035937413</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>180.6868035937413</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>180.6868035937413</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>173.7413028445379</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>159.8178987831288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473039</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.483574129469</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859355</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982748</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.2491605982748</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615927</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.5382038240414</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>149.5382038240414</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064341</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064341</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U7" t="n">
-        <v>438.955373861002</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="V7" t="n">
-        <v>438.955373861002</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="W7" t="n">
-        <v>149.5382038240414</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="X7" t="n">
-        <v>149.5382038240414</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.5382038240414</v>
+        <v>76.52029211334911</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2476.569858826099</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>2476.569858826099</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4896,28 +4896,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171745</v>
+        <v>1002.792923427375</v>
       </c>
       <c r="M12" t="n">
-        <v>1479.482307609636</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.893885873787</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>454.2145238948143</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>285.2783409669074</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>285.2783409669074</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>137.3652473845142</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>137.3652473845142</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>137.3652473845142</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387593</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011509</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952641</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>454.2145238948143</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,28 +5276,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5315,7 +5315,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171748</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N15" t="n">
-        <v>1824.002963247254</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,31 +5452,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.886294955175</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1090.100879744681</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028587</v>
@@ -5498,10 +5498,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,13 +5513,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5528,13 +5528,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>761.19637143277</v>
       </c>
       <c r="M18" t="n">
-        <v>334.288126757867</v>
+        <v>1529.564517825232</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>1874.08517346285</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>192.3330639344405</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>192.3330639344405</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>192.3330639344405</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>192.3330639344405</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028587</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247856</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247856</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188987</v>
+        <v>420.3226148324579</v>
       </c>
       <c r="W19" t="n">
-        <v>420.0340835819381</v>
+        <v>420.3226148324579</v>
       </c>
       <c r="X19" t="n">
-        <v>192.0445326839207</v>
+        <v>192.3330639344405</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.0445326839207</v>
+        <v>192.3330639344405</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L21" t="n">
-        <v>381.3300194168667</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M21" t="n">
-        <v>1149.698165809328</v>
+        <v>1387.227105931297</v>
       </c>
       <c r="N21" t="n">
-        <v>1954.109744073479</v>
+        <v>1731.747761568914</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1313.886294955175</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1090.100879744681</v>
+        <v>1237.725442076555</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>948.5968032901133</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6069,25 +6069,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>201.7151742891873</v>
       </c>
       <c r="L24" t="n">
-        <v>381.3300194168667</v>
+        <v>201.7151742891873</v>
       </c>
       <c r="M24" t="n">
-        <v>1149.698165809328</v>
+        <v>970.0833206816487</v>
       </c>
       <c r="N24" t="n">
-        <v>1954.109744073479</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6145,22 +6145,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S25" t="n">
-        <v>1218.817720359796</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1218.817720359796</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U25" t="n">
-        <v>929.6890815733537</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V25" t="n">
-        <v>929.6890815733537</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="W25" t="n">
-        <v>640.2719115363931</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="X25" t="n">
-        <v>412.2823606383757</v>
+        <v>447.0175521403265</v>
       </c>
       <c r="Y25" t="n">
-        <v>412.2823606383757</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>334.288126757867</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1926.416008325838</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2175.1694224098</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028581</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028581</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765182</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952641</v>
+        <v>936.9883990534095</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,37 +6449,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6546,22 +6546,22 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1122.004430061687</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M30" t="n">
-        <v>1890.372576454149</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1402.926441340468</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>451.1914993430013</v>
+        <v>565.3899630740211</v>
       </c>
       <c r="C31" t="n">
-        <v>451.1914993430013</v>
+        <v>452.2146454274849</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430013</v>
+        <v>452.2146454274849</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430013</v>
+        <v>360.0624171264624</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>360.0624171264624</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>247.6479607276538</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933498</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667504</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818951</v>
+        <v>1028.537962101696</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652488</v>
+        <v>856.3092764850496</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030892</v>
+        <v>691.2775626228902</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6683,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,13 +6719,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.325632214049</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2072.756377331216</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2593.056999066963</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7075,31 +7075,31 @@
         <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7160,64 +7160,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>772.8730769161742</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2246.748416482984</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2429.391894096335</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108325</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7415,43 +7415,43 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7491,25 +7491,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>436.8967109626376</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>1050.793780719526</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M42" t="n">
-        <v>1819.161927111988</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108318</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229659</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506712</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083192</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504501</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103117</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045197</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7646,28 +7646,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7728,25 +7728,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1819.161927111988</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.529509210313</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,13 +7828,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013787</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,16 +8778,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>475.7770385968278</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>261.7028877115056</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>243.3950579934514</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417972</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>278.0801180742536</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>160.0691419768046</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10923,7 +10923,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,16 +11151,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>154.9650327456817</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>109.16715400255</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338615</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>14.7411341369026</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.95281337053878</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>51.25623527351814</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,19 +24175,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>14.74113413690389</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>160.8894508454584</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>30.5875976912707</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>52.11417746079186</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338642</v>
+        <v>92.03075533675042</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.5424786948931</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965519</v>
+        <v>93.41221638965544</v>
       </c>
       <c r="E31" t="n">
-        <v>91.230706018012</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437433</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>124.5989577886073</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>691597.6334869595</v>
+        <v>691597.6334869594</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278754</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278754</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.3075278755</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="I2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.307527876</v>
       </c>
       <c r="K2" t="n">
-        <v>732279.8472214849</v>
+        <v>732279.8472214853</v>
       </c>
       <c r="L2" t="n">
-        <v>738937.5928778561</v>
+        <v>738937.5928778562</v>
       </c>
       <c r="M2" t="n">
-        <v>738937.5928778561</v>
+        <v>738937.5928778563</v>
       </c>
       <c r="N2" t="n">
+        <v>738937.592877856</v>
+      </c>
+      <c r="O2" t="n">
+        <v>738937.5928778565</v>
+      </c>
+      <c r="P2" t="n">
         <v>738937.5928778563</v>
-      </c>
-      <c r="O2" t="n">
-        <v>738937.5928778562</v>
-      </c>
-      <c r="P2" t="n">
-        <v>738937.5928778562</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145442</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284577</v>
+        <v>44162.60530284554</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086678</v>
+        <v>10342.906800867</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.60530284553</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806192</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758361</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758438</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758359</v>
+        <v>787.7936905758412</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758811</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477244</v>
+        <v>18952.41620477237</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189638</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189631</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,37 +26476,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72948.50358071808</v>
+        <v>-72948.50358071848</v>
       </c>
       <c r="C6" t="n">
-        <v>517019.3756338261</v>
+        <v>517019.3756338264</v>
       </c>
       <c r="D6" t="n">
-        <v>517019.3756338262</v>
+        <v>517019.3756338264</v>
       </c>
       <c r="E6" t="n">
-        <v>85917.15141168676</v>
+        <v>85819.69228571485</v>
       </c>
       <c r="F6" t="n">
-        <v>611077.1878885827</v>
+        <v>610979.7287626113</v>
       </c>
       <c r="G6" t="n">
-        <v>611077.1878885838</v>
+        <v>610979.7287626108</v>
       </c>
       <c r="H6" t="n">
-        <v>611077.1878885831</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="I6" t="n">
-        <v>611077.1878885833</v>
+        <v>610979.7287626114</v>
       </c>
       <c r="J6" t="n">
-        <v>434653.9686959904</v>
+        <v>434556.5095700184</v>
       </c>
       <c r="K6" t="n">
-        <v>572536.6171836439</v>
+        <v>572518.1234457102</v>
       </c>
       <c r="L6" t="n">
         <v>607672.9993250675</v>
       </c>
       <c r="M6" t="n">
-        <v>483214.8908920972</v>
+        <v>483214.8908920973</v>
       </c>
       <c r="N6" t="n">
-        <v>618015.9061259346</v>
+        <v>618015.9061259342</v>
       </c>
       <c r="O6" t="n">
-        <v>618015.9061259346</v>
+        <v>618015.9061259347</v>
       </c>
       <c r="P6" t="n">
-        <v>573853.3008230886</v>
+        <v>573853.3008230891</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964071</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964064</v>
@@ -26735,34 +26735,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>830.3824054541005</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108347</v>
+        <v>12.92863350108374</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>85.98948845797355</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.286082351725781e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>56.82580834555272</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>202.9246923626429</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>219.1066049712204</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>279.6675965732776</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>157.4804429918825</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>53.97620323457213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>308.9956887981476</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>185.3459314220229</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.2516047562942</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-4.165930294770898e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,13 +28813,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.029061917554738e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="32">
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31616,25 +31616,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,25 +31835,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31862,13 +31862,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>371.8925761935058</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>23.35950026224464</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32473,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.452637254088</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,25 +32546,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>54.69678998811281</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>384.2467489891728</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32573,13 +32573,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32792,31 +32792,31 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>54.69678998811281</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33026,34 +33026,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33266,31 +33266,31 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>147.3268674777244</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,10 +33497,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
@@ -33509,19 +33509,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33655,7 +33655,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33734,19 +33734,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>23.85840434223309</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33755,10 +33755,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33989,10 +33989,10 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>115.3101420900742</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34135,7 +34135,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
@@ -34153,7 +34153,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34211,13 +34211,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>216.4869287318326</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>438.8990799427509</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813461</v>
@@ -34229,7 +34229,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34366,7 +34366,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34390,7 +34390,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34448,25 +34448,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>216.4869287318326</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34699,25 +34699,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770686</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>344.4353265134945</v>
       </c>
       <c r="O12" t="n">
-        <v>343.1107267700522</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>130.3611756281723</v>
       </c>
       <c r="O15" t="n">
-        <v>623.1586510257908</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>255.6454657858296</v>
       </c>
       <c r="M18" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951466</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>286.9827555116978</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>635.5128238214579</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>105.5536190190924</v>
       </c>
       <c r="L24" t="n">
-        <v>286.9827555116978</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187473</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197789</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>144.1057106599233</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187473</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>740.6069989111005</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>398.5929423100095</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412243</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043166</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
@@ -37157,19 +37157,19 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>20.08736789078312</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>347.4294341702147</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37558,7 +37558,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415663</v>
@@ -37637,13 +37637,13 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>185.4056557399018</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>762.4701097707325</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520611</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595511</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
@@ -37953,10 +37953,10 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015153</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>343.1107267700522</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>23.62332066234838</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
